--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_EditProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF297852-8999-4A74-B219-BEB9EC0CFA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FD835F-4633-4545-A779-57E4FABCE92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>link_viewDetails</t>
   </si>
   <si>
-    <t>getData=Title</t>
-  </si>
-  <si>
     <t>button_saveDetails</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>link_gaapSourceObjectProfile_wait</t>
+  </si>
+  <si>
+    <t>getData=NewTitle</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -554,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -614,7 +614,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -629,10 +629,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -655,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -685,7 +685,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C79D857-71AE-4A12-9C5E-402C404CDC26}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,19 +729,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -750,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="7">
         <v>9001</v>
